--- a/WP plugin/API.xlsx
+++ b/WP plugin/API.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jetse\Documenten\EhB Toegepaste Informatica\2018-2019\EhB\Integration Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jetse\Bureaublad\WP plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80233CF0-B4F6-431C-8D6F-37E5C5B28153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02179CF-549C-4038-94F9-0C55F35BA4AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40470" yWindow="1440" windowWidth="15000" windowHeight="11460" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="API messages" sheetId="1" r:id="rId1"/>
+    <sheet name="API responses" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>method</t>
   </si>
@@ -293,6 +294,21 @@
   </si>
   <si>
     <t>puntnotatie!</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>betekenis</t>
+  </si>
+  <si>
+    <t>item succesvol gecreëerd</t>
+  </si>
+  <si>
+    <t>operatie failed, databasefout</t>
+  </si>
+  <si>
+    <t>operatie failed, item bestaat al in DB met zelfde of hoger versienummer</t>
   </si>
 </sst>
 </file>
@@ -324,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -352,15 +368,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -677,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC6C44-7500-4C0D-AF10-F0B468EB3624}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1632,6 +1664,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68BBF6-A773-468E-973F-4B8F19CA2D9F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="60.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1870F808-A2D6-4E95-A0EB-E6D98F9FC49B}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/WP plugin/API.xlsx
+++ b/WP plugin/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jetse\Bureaublad\WP plugin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jetse\Documenten\EhB Toegepaste Informatica\2018-2019\EhB\Integration Project\Plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02179CF-549C-4038-94F9-0C55F35BA4AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801D255-5900-42F5-B423-6FAE098ACC94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
+    <workbookView xWindow="5760" yWindow="420" windowWidth="17280" windowHeight="8964" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="API messages" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="93">
   <si>
     <t>method</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>operatie failed, item bestaat al in DB met zelfde of hoger versienummer</t>
+  </si>
+  <si>
+    <t>email*</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC6C44-7500-4C0D-AF10-F0B468EB3624}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1212,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -1667,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68BBF6-A773-468E-973F-4B8F19CA2D9F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
